--- a/shareschange.xlsx
+++ b/shareschange.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashley\vscodeprojects\changeinsharescsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597C24A-7C40-4AC6-8565-2C6B186C269E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064FB56-8273-48E1-902A-38707031D620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1886" yWindow="9" windowWidth="16397" windowHeight="18505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
   <si>
     <t>company</t>
   </si>
@@ -28,6 +39,9 @@
     <t>ticker</t>
   </si>
   <si>
+    <t>1/20/2021</t>
+  </si>
+  <si>
     <t>PACIFIC BIOSCIENCES OF CALIF</t>
   </si>
   <si>
@@ -341,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">ONVO </t>
+  </si>
+  <si>
+    <t>today/yesterday</t>
   </si>
 </sst>
 </file>
@@ -376,9 +393,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,606 +711,1561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
         <v>44215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C33" si="0">(D2/E2)-1</f>
+        <v>-1.42649212451742E-2</v>
+      </c>
+      <c r="D2">
+        <v>18274033</v>
+      </c>
+      <c r="E2">
         <v>18538483</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.031470115293482E-3</v>
+      </c>
+      <c r="D3">
+        <v>3658497</v>
+      </c>
+      <c r="E3">
+        <v>3629348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3516716059504672E-2</v>
+      </c>
+      <c r="D4">
+        <v>3158373</v>
+      </c>
+      <c r="E4">
+        <v>3085805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.2723851758547085E-3</v>
+      </c>
+      <c r="D5">
+        <v>2528990</v>
+      </c>
+      <c r="E5">
+        <v>2537293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3506864921152948E-2</v>
+      </c>
+      <c r="D6">
+        <v>5038276</v>
+      </c>
+      <c r="E6">
+        <v>4922562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3540224662244924E-2</v>
+      </c>
+      <c r="D7">
+        <v>792910</v>
+      </c>
+      <c r="E7">
+        <v>774674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3511795997707807E-2</v>
+      </c>
+      <c r="D8">
+        <v>3598908</v>
+      </c>
+      <c r="E8">
+        <v>3516235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3503530799469985E-2</v>
+      </c>
+      <c r="D9">
+        <v>2738484</v>
+      </c>
+      <c r="E9">
+        <v>2675598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3513862502739569E-2</v>
+      </c>
+      <c r="D10">
+        <v>7299489</v>
+      </c>
+      <c r="E10">
+        <v>7131793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4504506717127059E-2</v>
+      </c>
+      <c r="D11">
+        <v>8566487</v>
+      </c>
+      <c r="E11">
+        <v>7898987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6180483</v>
+      </c>
+      <c r="E12">
+        <v>6180483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6739994</v>
+      </c>
+      <c r="E13">
+        <v>6739994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2468476610798334E-2</v>
+      </c>
+      <c r="D14">
+        <v>1451015</v>
+      </c>
+      <c r="E14">
+        <v>1391903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5111857915408207E-2</v>
+      </c>
+      <c r="D15">
+        <v>3445241</v>
+      </c>
+      <c r="E15">
+        <v>3175010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3935339</v>
+      </c>
+      <c r="E16">
+        <v>3935339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7303232912885314E-2</v>
+      </c>
+      <c r="D17">
+        <v>14983948</v>
+      </c>
+      <c r="E17">
+        <v>14039073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3480844574163218E-2</v>
+      </c>
+      <c r="D18">
+        <v>116772</v>
+      </c>
+      <c r="E18">
+        <v>114093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3518318616350564E-2</v>
+      </c>
+      <c r="D19">
+        <v>2211123</v>
+      </c>
+      <c r="E19">
+        <v>2160316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6036351</v>
+      </c>
+      <c r="E20">
+        <v>6036351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>8710400</v>
+      </c>
+      <c r="E21">
+        <v>8710400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7209677535353638E-3</v>
+      </c>
+      <c r="D22">
+        <v>2509596</v>
+      </c>
+      <c r="E22">
+        <v>2502786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2178866</v>
+      </c>
+      <c r="E23">
+        <v>2178866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3505613883728183E-2</v>
+      </c>
+      <c r="D24">
+        <v>2977690</v>
+      </c>
+      <c r="E24">
+        <v>2909305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3501834081425699E-2</v>
+      </c>
+      <c r="D25">
+        <v>2255622</v>
+      </c>
+      <c r="E25">
+        <v>2203828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>8.045749523100576E-2</v>
+      </c>
+      <c r="D26">
+        <v>3291899</v>
+      </c>
+      <c r="E26">
+        <v>3046764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3508628166720724E-2</v>
+      </c>
+      <c r="D27">
+        <v>1731141</v>
+      </c>
+      <c r="E27">
+        <v>1691379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6938148063915541E-2</v>
+      </c>
+      <c r="D28">
+        <v>2604548</v>
+      </c>
+      <c r="E28">
+        <v>2374380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3507076419645667E-2</v>
+      </c>
+      <c r="D29">
+        <v>1583912</v>
+      </c>
+      <c r="E29">
+        <v>1547534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3504796897325875E-2</v>
+      </c>
+      <c r="D30">
+        <v>1403962</v>
+      </c>
+      <c r="E30">
+        <v>1371720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52807204983945155</v>
+      </c>
+      <c r="D31">
+        <v>211073472.75</v>
+      </c>
+      <c r="E31">
+        <v>138130576.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1812076</v>
+      </c>
+      <c r="E32">
+        <v>1812076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.351563305193527E-2</v>
+      </c>
+      <c r="D33">
+        <v>4915746</v>
+      </c>
+      <c r="E33">
+        <v>4802805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C65" si="1">(D34/E34)-1</f>
+        <v>2.351306141778875E-2</v>
+      </c>
+      <c r="D34">
+        <v>1916998</v>
+      </c>
+      <c r="E34">
+        <v>1872959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3501351847672547E-2</v>
+      </c>
+      <c r="D35">
+        <v>462596</v>
+      </c>
+      <c r="E35">
+        <v>451974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>2.354865996248412E-2</v>
+      </c>
+      <c r="D36">
+        <v>661889</v>
+      </c>
+      <c r="E36">
+        <v>646661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3528541143386983E-2</v>
+      </c>
+      <c r="D37">
+        <v>235126</v>
+      </c>
+      <c r="E37">
+        <v>229721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2154080</v>
+      </c>
+      <c r="E38">
+        <v>2154080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3531638575035263E-2</v>
+      </c>
+      <c r="D39">
+        <v>670534</v>
+      </c>
+      <c r="E39">
+        <v>655118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3511063163180079E-2</v>
+      </c>
+      <c r="D40">
+        <v>1632755</v>
+      </c>
+      <c r="E40">
+        <v>1595249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>8619409</v>
+      </c>
+      <c r="E41">
+        <v>8619409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3552954</v>
+      </c>
+      <c r="E42">
+        <v>3552954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3506237901320004E-2</v>
+      </c>
+      <c r="D43">
+        <v>1264718</v>
+      </c>
+      <c r="E43">
+        <v>1235672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5721282</v>
+      </c>
+      <c r="E44">
+        <v>5721282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>8154380</v>
+      </c>
+      <c r="E45">
+        <v>8154380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3159384</v>
+      </c>
+      <c r="E46">
+        <v>3159384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3503863262467783E-2</v>
+      </c>
+      <c r="D47">
+        <v>3411801</v>
+      </c>
+      <c r="E47">
+        <v>3333452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3503223015814312E-2</v>
+      </c>
+      <c r="D48">
+        <v>970148</v>
+      </c>
+      <c r="E48">
+        <v>947870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3522429857979255E-2</v>
+      </c>
+      <c r="D49">
+        <v>1871260</v>
+      </c>
+      <c r="E49">
+        <v>1828255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3526002423731596E-2</v>
+      </c>
+      <c r="D50">
+        <v>543914</v>
+      </c>
+      <c r="E50">
+        <v>531412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3836111</v>
+      </c>
+      <c r="E51">
+        <v>3836111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>4583323</v>
+      </c>
+      <c r="E52">
+        <v>4583323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="1"/>
+        <v>2.362078812107371E-2</v>
+      </c>
+      <c r="D53">
+        <v>179236</v>
+      </c>
+      <c r="E53">
+        <v>175100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>374190</v>
+      </c>
+      <c r="E54">
+        <v>374190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>3158373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3658497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3629348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>3085805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2537293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>18274033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>5038276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>4922562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>774674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>2528990</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>3516235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>792910</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>2738484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>2675598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>7131793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>3598908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>8566487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>7898987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>7299489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
         <v>6180483</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>1451015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
         <v>6739994</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>1391903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>3175010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>3445241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69">
         <v>3935339</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>14039073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>114093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>14983948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>2160316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>116772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>2211123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C73">
+        <v>211073472.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>2509596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
         <v>6036351</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76">
         <v>8710400</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>2502786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>2255622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>2977690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>3291899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80">
         <v>2178866</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>2909305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>2203828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
-        <v>3046764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>1691379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>2604548</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>2374380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>1547534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82">
+        <v>1731141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30">
-        <v>1371720</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <v>1583912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>60</v>
       </c>
-      <c r="C31">
-        <v>138130576.22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84">
+        <v>1403962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85">
+        <v>462596</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86">
         <v>1812076</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33">
-        <v>4802805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87">
+        <v>1916998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34">
-        <v>1872959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35">
-        <v>451974</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36">
-        <v>646661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <v>4915746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89">
+        <v>235126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37">
-        <v>229721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38">
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90">
+        <v>661889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91">
         <v>2154080</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39">
-        <v>655118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40">
-        <v>1595249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92">
+        <v>670534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41">
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93">
+        <v>1632755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94">
         <v>8619409</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95">
         <v>3552954</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43">
-        <v>1235672</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44">
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96">
+        <v>1264718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97">
         <v>5721282</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98">
         <v>8154380</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99">
+        <v>3411801</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100">
         <v>3159384</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47">
-        <v>3333452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48">
-        <v>947870</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49">
-        <v>1828255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101">
+        <v>970148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50">
-        <v>531412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102">
+        <v>1871260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51">
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103">
+        <v>543914</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104">
         <v>3836111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105">
         <v>4583323</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53">
-        <v>175100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54">
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>179236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
         <v>374190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/shareschange.xlsx
+++ b/shareschange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashley\vscodeprojects\changeinsharescsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064FB56-8273-48E1-902A-38707031D620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CFFDC-0A73-47CE-93BC-6D0F77C3D361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1886" yWindow="9" windowWidth="16397" windowHeight="18505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>company</t>
   </si>
@@ -39,6 +39,12 @@
     <t>ticker</t>
   </si>
   <si>
+    <t>today/yesterday</t>
+  </si>
+  <si>
+    <t>1/21/2021</t>
+  </si>
+  <si>
     <t>1/20/2021</t>
   </si>
   <si>
@@ -357,7 +363,10 @@
     <t xml:space="preserve">ONVO </t>
   </si>
   <si>
-    <t>today/yesterday</t>
+    <t>d1/d5</t>
+  </si>
+  <si>
+    <t>d1/d10</t>
   </si>
 </sst>
 </file>
@@ -711,15 +720,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -727,1540 +736,1237 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
         <v>44215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C33" si="0">(D2/E2)-1</f>
-        <v>-1.42649212451742E-2</v>
-      </c>
-      <c r="D2">
+        <f t="shared" ref="C2:C33" si="0">(F2/G2)-1</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2">
         <v>18274033</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>18274033</v>
+      </c>
+      <c r="H2">
         <v>18538483</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>8.031470115293482E-3</v>
-      </c>
-      <c r="D3">
+        <v>1.2545862412898012E-2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3">
+        <v>3704396</v>
+      </c>
+      <c r="G3">
         <v>3658497</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>3629348</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>2.3516716059504672E-2</v>
-      </c>
-      <c r="D4">
+        <v>1.4176919572197466E-2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>3203149</v>
+      </c>
+      <c r="G4">
         <v>3158373</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>3085805</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2723851758547085E-3</v>
-      </c>
-      <c r="D5">
+        <v>-1.7100107157402733E-2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>2485744</v>
+      </c>
+      <c r="G5">
         <v>2528990</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>2537293</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>2.3506864921152948E-2</v>
-      </c>
-      <c r="D6">
+        <v>1.4171117263127364E-2</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6">
+        <v>5109674</v>
+      </c>
+      <c r="G6">
         <v>5038276</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>4922562</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>2.3540224662244924E-2</v>
-      </c>
-      <c r="D7">
+        <v>1.4190765660667681E-2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7">
+        <v>804162</v>
+      </c>
+      <c r="G7">
         <v>792910</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>774674</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>2.3511795997707807E-2</v>
-      </c>
-      <c r="D8">
+        <v>1.4174021675463777E-2</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8">
+        <v>3649919</v>
+      </c>
+      <c r="G8">
         <v>3598908</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>3516235</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>2.3503530799469985E-2</v>
-      </c>
-      <c r="D9">
+        <v>1.4169153444022253E-2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9">
+        <v>2777286</v>
+      </c>
+      <c r="G9">
         <v>2738484</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>2675598</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>2.3513862502739569E-2</v>
-      </c>
-      <c r="D10">
+        <v>1.4175238842061511E-2</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10">
+        <v>7402961</v>
+      </c>
+      <c r="G10">
         <v>7299489</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>7131793</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>8.4504506717127059E-2</v>
-      </c>
-      <c r="D11">
+        <v>4.7483875245476925E-2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11">
+        <v>8973257</v>
+      </c>
+      <c r="G11">
         <v>8566487</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>7898987</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12">
         <v>6180483</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>6180483</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <v>6180483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13">
         <v>6739994</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>6739994</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>6739994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>4.2468476610798334E-2</v>
-      </c>
-      <c r="D14">
+        <v>8.140232871472719E-2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14">
+        <v>1569131</v>
+      </c>
+      <c r="G14">
         <v>1451015</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>1391903</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>8.5111857915408207E-2</v>
-      </c>
-      <c r="D15">
+        <v>3.6572477803439529E-2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15">
+        <v>3571242</v>
+      </c>
+      <c r="G15">
         <v>3445241</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>3175010</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16">
         <v>3935339</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>3935339</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>3935339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>6.7303232912885314E-2</v>
-      </c>
-      <c r="D17">
+        <v>7.5260138382754693E-2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17">
+        <v>16111642</v>
+      </c>
+      <c r="G17">
         <v>14983948</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>14039073</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>2.3480844574163218E-2</v>
-      </c>
-      <c r="D18">
+        <v>1.4155790771760435E-2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18">
+        <v>118425</v>
+      </c>
+      <c r="G18">
         <v>116772</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>114093</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>2.3518318616350564E-2</v>
-      </c>
-      <c r="D19">
+        <v>0.1129294932936793</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19">
+        <v>2460824</v>
+      </c>
+      <c r="G19">
         <v>2211123</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>2160316</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20">
         <v>6036351</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>6036351</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>6036351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21">
         <v>8710400</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>8710400</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <v>8710400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>2.7209677535353638E-3</v>
-      </c>
-      <c r="D22">
+        <v>1.0141074499640634E-2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22">
+        <v>2535046</v>
+      </c>
+      <c r="G22">
         <v>2509596</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>2502786</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23">
         <v>2178866</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>2178866</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <v>2178866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>2.3505613883728183E-2</v>
-      </c>
-      <c r="D24">
+        <v>3.1984189086170733E-2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24">
+        <v>3072929</v>
+      </c>
+      <c r="G24">
         <v>2977690</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>2909305</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>2.3501834081425699E-2</v>
-      </c>
-      <c r="D25">
+        <v>1.4181010825395468E-2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25">
+        <v>2287609</v>
+      </c>
+      <c r="G25">
         <v>2255622</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>2203828</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>8.045749523100576E-2</v>
-      </c>
-      <c r="D26">
+        <v>1.7747506834201232E-2</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26">
+        <v>3350322</v>
+      </c>
+      <c r="G26">
         <v>3291899</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>3046764</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>2.3508628166720724E-2</v>
-      </c>
-      <c r="D27">
+        <v>1.4172155820929566E-2</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27">
+        <v>1755675</v>
+      </c>
+      <c r="G27">
         <v>1731141</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>1691379</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>9.6938148063915541E-2</v>
-      </c>
-      <c r="D28">
+        <v>1.4174052465149467E-2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28">
+        <v>2641465</v>
+      </c>
+      <c r="G28">
         <v>2604548</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>2374380</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>2.3507076419645667E-2</v>
-      </c>
-      <c r="D29">
+        <v>1.4171241836667736E-2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29">
+        <v>1606358</v>
+      </c>
+      <c r="G29">
         <v>1583912</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>1547534</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>2.3504796897325875E-2</v>
-      </c>
-      <c r="D30">
+        <v>0.1961641411947046</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30">
+        <v>1679369</v>
+      </c>
+      <c r="G30">
         <v>1403962</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>1371720</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>0.52807204983945155</v>
-      </c>
-      <c r="D31">
+        <v>-0.10435606446902512</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31">
+        <v>189046675.81999999</v>
+      </c>
+      <c r="G31">
         <v>211073472.75</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>138130576.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32">
         <v>1812076</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>1812076</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <v>1812076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>2.351563305193527E-2</v>
-      </c>
-      <c r="D33">
+        <v>1.4176281687459102E-2</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33">
+        <v>4985433</v>
+      </c>
+      <c r="G33">
         <v>4915746</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>4802805</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:C65" si="1">(D34/E34)-1</f>
-        <v>2.351306141778875E-2</v>
-      </c>
-      <c r="D34">
+        <f t="shared" ref="C34:C65" si="1">(F34/G34)-1</f>
+        <v>1.4174767005495026E-2</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34">
+        <v>1944171</v>
+      </c>
+      <c r="G34">
         <v>1916998</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>1872959</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
-        <v>2.3501351847672547E-2</v>
-      </c>
-      <c r="D35">
+        <v>1.4167870020493023E-2</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35">
+        <v>469150</v>
+      </c>
+      <c r="G35">
         <v>462596</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>451974</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="1"/>
-        <v>2.354865996248412E-2</v>
-      </c>
-      <c r="D36">
+        <v>1.4151919732764862E-2</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36">
+        <v>671256</v>
+      </c>
+      <c r="G36">
         <v>661889</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>646661</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="1"/>
-        <v>2.3528541143386983E-2</v>
-      </c>
-      <c r="D37">
+        <v>1.4183884385393419E-2</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37">
+        <v>238461</v>
+      </c>
+      <c r="G37">
         <v>235126</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>229721</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38">
         <v>2154080</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>2154080</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <v>2154080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="1"/>
-        <v>2.3531638575035263E-2</v>
-      </c>
-      <c r="D39">
+        <v>1.4185708703809308E-2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39">
+        <v>680046</v>
+      </c>
+      <c r="G39">
         <v>670534</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>655118</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
-        <v>2.3511063163180079E-2</v>
-      </c>
-      <c r="D40">
+        <v>1.4173590036472117E-2</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40">
+        <v>1655897</v>
+      </c>
+      <c r="G40">
         <v>1632755</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>1595249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41">
         <v>8619409</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>8619409</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <v>8619409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42">
         <v>3552954</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>3552954</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <v>3552954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
-        <v>2.3506237901320004E-2</v>
-      </c>
-      <c r="D43">
+        <v>1.4170747945391859E-2</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43">
+        <v>1282640</v>
+      </c>
+      <c r="G43">
         <v>1264718</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>1235672</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44">
         <v>5721282</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>5721282</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H44">
+        <v>5721282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45">
         <v>8154380</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>8154380</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H45">
+        <v>8154380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46">
         <v>3159384</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>3159384</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H46">
+        <v>3159384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="1"/>
-        <v>2.3503863262467783E-2</v>
-      </c>
-      <c r="D47">
+        <v>1.4177849177018143E-2</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47">
+        <v>3460173</v>
+      </c>
+      <c r="G47">
         <v>3411801</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>3333452</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="1"/>
-        <v>2.3503223015814312E-2</v>
-      </c>
-      <c r="D48">
+        <v>1.4168972156825665E-2</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48">
+        <v>983894</v>
+      </c>
+      <c r="G48">
         <v>970148</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>947870</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="1"/>
-        <v>2.3522429857979255E-2</v>
-      </c>
-      <c r="D49">
+        <v>1.4180284941696986E-2</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49">
+        <v>1897795</v>
+      </c>
+      <c r="G49">
         <v>1871260</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>1828255</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="1"/>
-        <v>2.3526002423731596E-2</v>
-      </c>
-      <c r="D50">
+        <v>1.4182389127692874E-2</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50">
+        <v>551628</v>
+      </c>
+      <c r="G50">
         <v>543914</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>531412</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51">
         <v>3836111</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>3836111</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <v>3836111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52">
         <v>4583323</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>4583323</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H52">
+        <v>4583323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="1"/>
-        <v>2.362078812107371E-2</v>
-      </c>
-      <c r="D53">
+        <v>3.0775067508759468E-2</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53">
+        <v>184752</v>
+      </c>
+      <c r="G53">
         <v>179236</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>175100</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54">
         <v>374190</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>374190</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55">
-        <v>3158373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>3658497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>18274033</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>5038276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
-        <v>2528990</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <v>792910</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61">
-        <v>2738484</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <v>3598908</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63">
-        <v>8566487</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64">
-        <v>7299489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65">
-        <v>6180483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66">
-        <v>1451015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67">
-        <v>6739994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68">
-        <v>3445241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69">
-        <v>3935339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70">
-        <v>14983948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71">
-        <v>116772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72">
-        <v>2211123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C73">
-        <v>211073472.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74">
-        <v>2509596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75">
-        <v>6036351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76">
-        <v>8710400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <v>2255622</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78">
-        <v>2977690</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79">
-        <v>3291899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80">
-        <v>2178866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81">
-        <v>2604548</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82">
-        <v>1731141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83">
-        <v>1583912</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84">
-        <v>1403962</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85">
-        <v>462596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86">
-        <v>1812076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87">
-        <v>1916998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88">
-        <v>4915746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89">
-        <v>235126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90">
-        <v>661889</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91">
-        <v>2154080</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92">
-        <v>670534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93">
-        <v>1632755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94">
-        <v>8619409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95">
-        <v>3552954</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96">
-        <v>1264718</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97">
-        <v>5721282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98">
-        <v>8154380</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99">
-        <v>3411801</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100">
-        <v>3159384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101">
-        <v>970148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102">
-        <v>1871260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103">
-        <v>543914</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104">
-        <v>3836111</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>4583323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106">
-        <v>179236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107">
+      <c r="H54">
         <v>374190</v>
       </c>
     </row>
